--- a/Scan.xlsx
+++ b/Scan.xlsx
@@ -453,11 +453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116371824"/>
-        <c:axId val="2116377808"/>
+        <c:axId val="-1565004848"/>
+        <c:axId val="-1565004304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116371824"/>
+        <c:axId val="-1565004848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -486,8 +486,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -510,12 +511,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116377808"/>
+        <c:crossAx val="-1565004304"/>
         <c:crossesAt val="1.0000000000000005E-9"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116377808"/>
+        <c:axId val="-1565004304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -572,7 +573,597 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116371824"/>
+        <c:crossAx val="-1565004848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Scan </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Camparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GlobalGPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SharedGPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1285158832"/>
+        <c:axId val="-1285150128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1285158832"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1285150128"/>
+        <c:crossesAt val="1.0000000000000005E-9"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1285150128"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1285158832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -695,6 +1286,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -1233,20 +1864,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>519111</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1260,6 +2429,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1558,7 +2757,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1634,16 +2833,16 @@
         <v>3.1E-2</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F4">
-        <v>6.9000000000000006E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
